--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB4D4D9-1524-409E-865C-303929B22B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA12EB88-5C75-4885-9DFC-3F00BC578C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C9850B4-0161-4908-B739-E041D7CE9616}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FDEAC80-97B1-49D6-B97C-AEF519030B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,1252 +80,1246 @@
     <t>0,9%</t>
   </si>
   <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>90,78%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>91,55%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,43%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>12,49%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>87,51%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EC1A6-37F0-4C86-8EA9-9A98BDD4B9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BB4AF-DEB4-4E51-9C9F-2DCE169A49AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2326,13 +2320,13 @@
         <v>28982</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2341,13 +2335,13 @@
         <v>83345</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2356,13 +2350,13 @@
         <v>112328</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2371,13 @@
         <v>649527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -2392,13 +2386,13 @@
         <v>600496</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1223</v>
@@ -2407,13 +2401,13 @@
         <v>1250022</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2475,13 @@
         <v>47397</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -2496,13 +2490,13 @@
         <v>119185</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2511,13 +2505,13 @@
         <v>166582</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2526,13 @@
         <v>894825</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>883</v>
@@ -2547,13 +2541,13 @@
         <v>919427</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1825</v>
@@ -2562,13 +2556,13 @@
         <v>1814252</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2630,13 @@
         <v>161025</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>367</v>
@@ -2651,13 +2645,13 @@
         <v>376807</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>530</v>
@@ -2666,13 +2660,13 @@
         <v>537832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>3115519</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>2930</v>
@@ -2702,28 +2696,28 @@
         <v>3002391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>5981</v>
       </c>
       <c r="N20" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2759,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2779,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6301905D-F58B-49DB-8B32-0DD59470DA7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162D5D2-AD5D-4DD5-9DB8-D28AEC8C82F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2918,13 @@
         <v>8327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2939,13 +2933,13 @@
         <v>16028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2954,13 +2948,13 @@
         <v>24355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2969,13 @@
         <v>107438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2990,13 +2984,13 @@
         <v>95877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -3005,13 +2999,13 @@
         <v>203315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3073,13 @@
         <v>36876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -3094,13 +3088,13 @@
         <v>94732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -3109,13 +3103,13 @@
         <v>131608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3124,13 @@
         <v>550828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -3145,13 +3139,13 @@
         <v>490413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>977</v>
@@ -3160,13 +3154,13 @@
         <v>1041241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3228,13 @@
         <v>69634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -3249,13 +3243,13 @@
         <v>160973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3264,13 +3258,13 @@
         <v>230608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3279,13 @@
         <v>948313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
@@ -3300,13 +3294,13 @@
         <v>871211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1667</v>
@@ -3315,13 +3309,13 @@
         <v>1819523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3383,13 @@
         <v>40964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -3404,13 +3398,13 @@
         <v>115450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -3419,13 +3413,13 @@
         <v>156414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3434,13 @@
         <v>716659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -3455,13 +3449,13 @@
         <v>661724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -3470,13 +3464,13 @@
         <v>1378383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3544,13 +3538,13 @@
         <v>71880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -3559,13 +3553,13 @@
         <v>167643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -3574,13 +3568,13 @@
         <v>239522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3589,13 @@
         <v>875859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>842</v>
@@ -3610,13 +3604,13 @@
         <v>884258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1688</v>
@@ -3625,13 +3619,13 @@
         <v>1760118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3693,13 @@
         <v>227680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -3714,13 +3708,13 @@
         <v>554826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>719</v>
@@ -3729,13 +3723,13 @@
         <v>782506</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3744,13 @@
         <v>3199099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2781</v>
@@ -3765,13 +3759,13 @@
         <v>3003483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5788</v>
@@ -3780,13 +3774,13 @@
         <v>6202582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF84271-74A2-4329-AF12-A700DB3FFEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C77231-19BF-499B-9A09-1D346C84855C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3981,13 @@
         <v>8424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4002,13 +3996,13 @@
         <v>23952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4017,13 +4011,13 @@
         <v>32377</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>108122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -4053,13 +4047,13 @@
         <v>89408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -4068,13 +4062,13 @@
         <v>197529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4136,13 @@
         <v>27967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -4157,13 +4151,13 @@
         <v>94953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4172,13 +4166,13 @@
         <v>122920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4187,13 @@
         <v>530287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -4208,13 +4202,13 @@
         <v>464526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>970</v>
@@ -4223,13 +4217,13 @@
         <v>994813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4291,13 @@
         <v>58434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -4312,13 +4306,13 @@
         <v>141298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4327,13 +4321,13 @@
         <v>199732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4342,13 @@
         <v>963997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -4363,13 +4357,13 @@
         <v>901615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1747</v>
@@ -4378,13 +4372,13 @@
         <v>1865612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4446,13 @@
         <v>47209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -4467,13 +4461,13 @@
         <v>109260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -4482,13 +4476,13 @@
         <v>156469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4497,13 @@
         <v>712343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>638</v>
@@ -4518,13 +4512,13 @@
         <v>675751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -4533,13 +4527,13 @@
         <v>1388094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4607,13 +4601,13 @@
         <v>70664</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4622,13 +4616,13 @@
         <v>168868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4637,13 +4631,13 @@
         <v>239532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4652,13 @@
         <v>866903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4673,13 +4667,13 @@
         <v>874911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>1674</v>
@@ -4688,13 +4682,13 @@
         <v>1741814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4756,13 @@
         <v>212698</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
@@ -4777,13 +4771,13 @@
         <v>538331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
@@ -4792,13 +4786,13 @@
         <v>751029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4807,13 @@
         <v>3181652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2852</v>
@@ -4828,13 +4822,13 @@
         <v>3006211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>5877</v>
@@ -4843,13 +4837,13 @@
         <v>6187863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D17E1-ABB8-480F-AC69-94CB4DB5F32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997EAC0-936C-4BF9-9793-C0AEA49CA633}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5044,13 @@
         <v>6550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -5065,13 +5059,13 @@
         <v>19403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5080,13 +5074,13 @@
         <v>25952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5095,13 @@
         <v>95432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5116,13 +5110,13 @@
         <v>111330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
@@ -5131,13 +5125,13 @@
         <v>206763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5199,13 @@
         <v>61729</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -5220,13 +5214,13 @@
         <v>110983</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>295</v>
@@ -5235,13 +5229,13 @@
         <v>172712</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,10 +5250,10 @@
         <v>488094</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>354</v>
@@ -5530,13 +5524,13 @@
         <v>125298</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -5545,13 +5539,13 @@
         <v>190235</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5575,13 @@
         <v>749073</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>1470</v>
@@ -5596,10 +5590,10 @@
         <v>1412907</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>394</v>
@@ -5658,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5676,7 +5670,7 @@
         <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>327</v>
@@ -5685,13 +5679,13 @@
         <v>219310</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -5700,10 +5694,10 @@
         <v>317790</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>402</v>
@@ -5724,10 +5718,10 @@
         <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1235</v>
@@ -5736,13 +5730,13 @@
         <v>931122</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>2124</v>
@@ -5751,13 +5745,13 @@
         <v>1798045</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5855,7 @@
         <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5870,13 @@
         <v>3084817</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4291</v>
@@ -5891,28 +5885,28 @@
         <v>3169167</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>7309</v>
       </c>
       <c r="N20" s="7">
-        <v>6253984</v>
+        <v>6253983</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5948,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5968,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA12EB88-5C75-4885-9DFC-3F00BC578C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24181474-522C-4D70-B964-72530D9A4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FDEAC80-97B1-49D6-B97C-AEF519030B0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA0E69CC-7208-4978-B4AA-2E1F42DC0B31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,59%</t>
+    <t>92,37%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -116,178 +116,184 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>91,75%</t>
@@ -296,7 +302,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>93,21%</t>
+    <t>93,09%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,31 +314,31 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -341,67 +347,73 @@
     <t>88,52%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>91,24%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -413,106 +425,115 @@
     <t>7,19%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>15,6%</t>
@@ -521,31 +542,28 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>81,97%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>86,67%</t>
@@ -554,661 +572,673 @@
     <t>88,75%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>94,59%</t>
   </si>
   <si>
-    <t>96,3%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>85,67%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
   </si>
   <si>
     <t>82,51%</t>
@@ -1731,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BB4AF-DEB4-4E51-9C9F-2DCE169A49AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94406277-0091-4309-A1DE-3BAD49EF65DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2320,13 +2350,13 @@
         <v>28982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2335,13 +2365,13 @@
         <v>83345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2350,13 +2380,13 @@
         <v>112328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2401,13 @@
         <v>649527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -2386,13 +2416,13 @@
         <v>600496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1223</v>
@@ -2401,13 +2431,13 @@
         <v>1250022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2505,13 @@
         <v>47397</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -2490,13 +2520,13 @@
         <v>119185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2505,13 +2535,13 @@
         <v>166582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2556,13 @@
         <v>894825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>883</v>
@@ -2541,13 +2571,13 @@
         <v>919427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1825</v>
@@ -2556,13 +2586,13 @@
         <v>1814252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2660,13 @@
         <v>161025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>367</v>
@@ -2645,13 +2675,13 @@
         <v>376807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>530</v>
@@ -2660,13 +2690,13 @@
         <v>537832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2708,16 @@
         <v>3051</v>
       </c>
       <c r="D20" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2930</v>
@@ -2696,13 +2726,13 @@
         <v>3002391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5981</v>
@@ -2711,13 +2741,13 @@
         <v>6117909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2759,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162D5D2-AD5D-4DD5-9DB8-D28AEC8C82F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EAA1FB-1A8F-4597-8955-9CA2EA95C90D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2948,13 @@
         <v>8327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2933,13 +2963,13 @@
         <v>16028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2948,13 +2978,13 @@
         <v>24355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2999,13 @@
         <v>107438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2984,13 +3014,13 @@
         <v>95877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -2999,13 +3029,13 @@
         <v>203315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3103,13 @@
         <v>36876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -3088,13 +3118,13 @@
         <v>94732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -3103,13 +3133,13 @@
         <v>131608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3154,13 @@
         <v>550828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -3139,13 +3169,13 @@
         <v>490413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>977</v>
@@ -3154,13 +3184,13 @@
         <v>1041241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3258,13 @@
         <v>69634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -3243,13 +3273,13 @@
         <v>160973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3258,13 +3288,13 @@
         <v>230608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3309,13 @@
         <v>948313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
@@ -3294,13 +3324,13 @@
         <v>871211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1667</v>
@@ -3309,13 +3339,13 @@
         <v>1819523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3413,13 @@
         <v>40964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -3398,13 +3428,13 @@
         <v>115450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -3413,13 +3443,13 @@
         <v>156414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3464,13 @@
         <v>716659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -3449,13 +3479,13 @@
         <v>661724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -3464,13 +3494,13 @@
         <v>1378383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3568,13 @@
         <v>71880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -3553,13 +3583,13 @@
         <v>167643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -3568,13 +3598,13 @@
         <v>239522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3619,13 @@
         <v>875859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>842</v>
@@ -3604,13 +3634,13 @@
         <v>884258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1688</v>
@@ -3619,13 +3649,13 @@
         <v>1760118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3723,13 @@
         <v>227680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -3708,13 +3738,13 @@
         <v>554826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>719</v>
@@ -3723,13 +3753,13 @@
         <v>782506</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3774,13 @@
         <v>3199099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2781</v>
@@ -3759,13 +3789,13 @@
         <v>3003483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5788</v>
@@ -3774,13 +3804,13 @@
         <v>6202582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C77231-19BF-499B-9A09-1D346C84855C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47804D4E-7999-484B-B08D-1B26ACE52109}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +4011,13 @@
         <v>8424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3996,13 +4026,13 @@
         <v>23952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4011,13 +4041,13 @@
         <v>32377</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4062,13 @@
         <v>108122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -4047,13 +4077,13 @@
         <v>89408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -4062,13 +4092,13 @@
         <v>197529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4166,13 @@
         <v>27967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -4151,13 +4181,13 @@
         <v>94953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4166,13 +4196,13 @@
         <v>122920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4217,13 @@
         <v>530287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -4202,13 +4232,13 @@
         <v>464526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>970</v>
@@ -4217,13 +4247,13 @@
         <v>994813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4321,13 @@
         <v>58434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -4306,13 +4336,13 @@
         <v>141298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4321,13 +4351,13 @@
         <v>199732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4372,13 @@
         <v>963997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -4357,13 +4387,13 @@
         <v>901615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1747</v>
@@ -4372,13 +4402,13 @@
         <v>1865612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4476,13 @@
         <v>47209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -4461,13 +4491,13 @@
         <v>109260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -4476,13 +4506,13 @@
         <v>156469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4527,13 @@
         <v>712343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>638</v>
@@ -4512,13 +4542,13 @@
         <v>675751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -4527,13 +4557,13 @@
         <v>1388094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4631,13 @@
         <v>70664</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4616,13 +4646,13 @@
         <v>168868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4631,13 +4661,13 @@
         <v>239532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4682,13 @@
         <v>866903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4667,13 +4697,13 @@
         <v>874911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1674</v>
@@ -4682,13 +4712,13 @@
         <v>1741814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4786,13 @@
         <v>212698</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
@@ -4771,13 +4801,13 @@
         <v>538331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
@@ -4786,13 +4816,13 @@
         <v>751029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4837,13 @@
         <v>3181652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>2852</v>
@@ -4822,13 +4852,13 @@
         <v>3006211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>5877</v>
@@ -4837,13 +4867,13 @@
         <v>6187863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997EAC0-936C-4BF9-9793-C0AEA49CA633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0752B-C822-4C9B-991D-7D81B77BA5B4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5074,13 @@
         <v>6550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -5059,13 +5089,13 @@
         <v>19403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5074,13 +5104,13 @@
         <v>25952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5125,13 @@
         <v>95432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5110,13 +5140,13 @@
         <v>111330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
@@ -5125,13 +5155,13 @@
         <v>206763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5229,13 @@
         <v>61729</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -5214,13 +5244,13 @@
         <v>110983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>295</v>
@@ -5229,13 +5259,13 @@
         <v>172712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5280,13 @@
         <v>488094</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>782</v>
@@ -5265,13 +5295,13 @@
         <v>508984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1315</v>
@@ -5280,13 +5310,13 @@
         <v>997078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5384,13 @@
         <v>68715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -5369,13 +5399,13 @@
         <v>191420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>390</v>
@@ -5384,13 +5414,13 @@
         <v>260135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5435,13 @@
         <v>970533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>1210</v>
@@ -5420,13 +5450,13 @@
         <v>868659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>2091</v>
@@ -5435,13 +5465,13 @@
         <v>1839192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5539,13 @@
         <v>64937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -5524,13 +5554,13 @@
         <v>125298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -5539,13 +5569,13 @@
         <v>190235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5590,13 @@
         <v>663835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>864</v>
@@ -5575,13 +5605,13 @@
         <v>749073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>1470</v>
@@ -5590,13 +5620,13 @@
         <v>1412907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5694,13 @@
         <v>98480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>327</v>
@@ -5679,13 +5709,13 @@
         <v>219310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -5694,13 +5724,13 @@
         <v>317790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5745,13 @@
         <v>866923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>1235</v>
@@ -5730,13 +5760,13 @@
         <v>931122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>2124</v>
@@ -5745,13 +5775,13 @@
         <v>1798045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5849,13 @@
         <v>300411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>1076</v>
@@ -5834,13 +5864,13 @@
         <v>666414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>1434</v>
@@ -5849,13 +5879,13 @@
         <v>966825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5900,13 @@
         <v>3084817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>4291</v>
@@ -5885,13 +5915,13 @@
         <v>3169167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>7309</v>
@@ -5900,13 +5930,13 @@
         <v>6253983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24181474-522C-4D70-B964-72530D9A4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{441AA945-8B52-441C-B0DB-E8F2F28545A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA0E69CC-7208-4978-B4AA-2E1F42DC0B31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CC09D9-486F-48A2-BA49-AACFB6A5D226}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,37%</t>
+    <t>92,55%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -116,19 +116,19 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,850 +197,838 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>94,04%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>88,43%</t>
   </si>
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1052,28 +1040,25 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>12,79%</t>
+    <t>13,0%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>87,21%</t>
+    <t>87,0%</t>
   </si>
   <si>
     <t>96,87%</t>
@@ -1082,76 +1067,67 @@
     <t>85,16%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>8,89%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>91,11%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -1160,196 +1136,196 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>90,78%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>16,57%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>91,55%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>83,43%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>87,51%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94406277-0091-4309-A1DE-3BAD49EF65DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41B8878-2ACD-4A6B-B965-0BF94E733DC9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2708,7 +2684,7 @@
         <v>3051</v>
       </c>
       <c r="D20" s="7">
-        <v>3115518</v>
+        <v>3115519</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2738,7 +2714,7 @@
         <v>5981</v>
       </c>
       <c r="N20" s="7">
-        <v>6117909</v>
+        <v>6117908</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2759,7 +2735,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2789,7 +2765,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2824,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EAA1FB-1A8F-4597-8955-9CA2EA95C90D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29AEA7-F668-403A-9C96-469253986A28}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,13 +3234,13 @@
         <v>69634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -3273,13 +3249,13 @@
         <v>160973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3288,13 +3264,13 @@
         <v>230608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3285,13 @@
         <v>948313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
@@ -3324,13 +3300,13 @@
         <v>871211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1667</v>
@@ -3339,13 +3315,13 @@
         <v>1819523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3389,13 @@
         <v>40964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -3428,13 +3404,13 @@
         <v>115450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -3443,13 +3419,13 @@
         <v>156414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3440,13 @@
         <v>716659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -3479,13 +3455,13 @@
         <v>661724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -3494,13 +3470,13 @@
         <v>1378383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3544,13 @@
         <v>71880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -3583,13 +3559,13 @@
         <v>167643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -3598,13 +3574,13 @@
         <v>239522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3595,13 @@
         <v>875859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>842</v>
@@ -3634,13 +3610,13 @@
         <v>884258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1688</v>
@@ -3649,10 +3625,10 @@
         <v>1760118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>212</v>
@@ -3887,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47804D4E-7999-484B-B08D-1B26ACE52109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16512A20-B765-4EE4-9CD6-05783BB15C02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,10 +4175,10 @@
         <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4193,13 @@
         <v>530287</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -4232,13 +4208,13 @@
         <v>464526</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>970</v>
@@ -4247,13 +4223,13 @@
         <v>994813</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,10 +4300,10 @@
         <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -4336,13 +4312,13 @@
         <v>141298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4351,13 +4327,13 @@
         <v>199732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,10 +4351,10 @@
         <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -4387,13 +4363,13 @@
         <v>901615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1747</v>
@@ -4402,13 +4378,13 @@
         <v>1865612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4452,13 @@
         <v>47209</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -4491,13 +4467,13 @@
         <v>109260</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -4506,13 +4482,13 @@
         <v>156469</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4503,13 @@
         <v>712343</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>638</v>
@@ -4542,13 +4518,13 @@
         <v>675751</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -4557,13 +4533,13 @@
         <v>1388094</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4607,13 @@
         <v>70664</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4646,13 +4622,13 @@
         <v>168868</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4661,13 +4637,13 @@
         <v>239532</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4658,13 @@
         <v>866903</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4697,13 +4673,13 @@
         <v>874911</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1674</v>
@@ -4712,13 +4688,13 @@
         <v>1741814</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,10 +4765,10 @@
         <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
@@ -4801,13 +4777,13 @@
         <v>538331</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
@@ -4816,13 +4792,13 @@
         <v>751029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,10 +4816,10 @@
         <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>2852</v>
@@ -4852,13 +4828,13 @@
         <v>3006211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>5877</v>
@@ -4867,13 +4843,13 @@
         <v>6187863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0752B-C822-4C9B-991D-7D81B77BA5B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52EFB32-BF69-44EE-82C6-F729265BAFC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5050,13 @@
         <v>6550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -5089,13 +5065,13 @@
         <v>19403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5107,10 +5083,10 @@
         <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5101,13 @@
         <v>95432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5140,13 +5116,13 @@
         <v>111330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
@@ -5158,10 +5134,10 @@
         <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5205,13 @@
         <v>61729</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>216</v>
@@ -5244,13 +5220,13 @@
         <v>110983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>295</v>
@@ -5259,13 +5235,13 @@
         <v>172712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5256,13 @@
         <v>488094</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>782</v>
@@ -5295,13 +5271,13 @@
         <v>508984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1315</v>
@@ -5310,13 +5286,13 @@
         <v>997078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5360,13 @@
         <v>68715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -5399,13 +5375,13 @@
         <v>191420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>390</v>
@@ -5414,13 +5390,13 @@
         <v>260135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5411,13 @@
         <v>970533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1210</v>
@@ -5450,13 +5426,13 @@
         <v>868659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>2091</v>
@@ -5465,13 +5441,13 @@
         <v>1839192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5515,13 @@
         <v>64937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -5554,13 +5530,13 @@
         <v>125298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -5569,13 +5545,13 @@
         <v>190235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5566,13 @@
         <v>663835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>864</v>
@@ -5605,13 +5581,13 @@
         <v>749073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>1470</v>
@@ -5620,13 +5596,13 @@
         <v>1412907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5670,13 @@
         <v>98480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>327</v>
@@ -5709,13 +5685,13 @@
         <v>219310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -5724,13 +5700,13 @@
         <v>317790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5721,13 @@
         <v>866923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1235</v>
@@ -5760,13 +5736,13 @@
         <v>931122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>2124</v>
@@ -5775,13 +5751,13 @@
         <v>1798045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5825,13 @@
         <v>300411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>1076</v>
@@ -5864,13 +5840,13 @@
         <v>666414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>1434</v>
@@ -5879,13 +5855,13 @@
         <v>966825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5876,13 @@
         <v>3084817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4291</v>
@@ -5915,28 +5891,28 @@
         <v>3169167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>7309</v>
       </c>
       <c r="N20" s="7">
-        <v>6253983</v>
+        <v>6253984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +5954,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{441AA945-8B52-441C-B0DB-E8F2F28545A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3031FFDF-1981-47A1-A39B-41F623DF7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CC09D9-486F-48A2-BA49-AACFB6A5D226}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F609F4C1-DB89-4A84-A71D-19CB81BF521F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,948 +68,777 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
     <t>92,83%</t>
   </si>
   <si>
@@ -1034,298 +863,256 @@
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41B8878-2ACD-4A6B-B965-0BF94E733DC9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA3FB56-6452-4EFB-86D0-BDA1AD3FB332}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1855,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>3202</v>
+        <v>37585</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1870,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I4" s="7">
-        <v>9859</v>
+        <v>63484</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1885,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>13061</v>
+        <v>101069</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1906,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>644</v>
       </c>
       <c r="D5" s="7">
-        <v>112156</v>
+        <v>656427</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1921,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>117</v>
+        <v>631</v>
       </c>
       <c r="I5" s="7">
-        <v>102896</v>
+        <v>624867</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1936,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1275</v>
       </c>
       <c r="N5" s="7">
-        <v>215052</v>
+        <v>1281294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1957,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>34383</v>
+        <v>47061</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2025,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7">
-        <v>53625</v>
+        <v>110792</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2040,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="N7" s="7">
-        <v>88008</v>
+        <v>157853</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2061,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>542</v>
+        <v>852</v>
       </c>
       <c r="D8" s="7">
-        <v>544271</v>
+        <v>914739</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2076,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>514</v>
+        <v>806</v>
       </c>
       <c r="I8" s="7">
-        <v>521971</v>
+        <v>857601</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2091,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1056</v>
+        <v>1658</v>
       </c>
       <c r="N8" s="7">
-        <v>1066242</v>
+        <v>1772340</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2112,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2165,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>47061</v>
+        <v>28982</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2180,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>110792</v>
+        <v>83345</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2195,10 +1982,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>157853</v>
+        <v>112328</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2216,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>852</v>
+        <v>613</v>
       </c>
       <c r="D11" s="7">
-        <v>914739</v>
+        <v>649527</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2231,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>806</v>
+        <v>610</v>
       </c>
       <c r="I11" s="7">
-        <v>857601</v>
+        <v>600496</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2246,10 +2033,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1658</v>
+        <v>1223</v>
       </c>
       <c r="N11" s="7">
-        <v>1772340</v>
+        <v>1250022</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2267,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>28982</v>
+        <v>47397</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2335,10 +2122,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>83345</v>
+        <v>119185</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2350,10 +2137,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>112328</v>
+        <v>166582</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2371,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>613</v>
+        <v>942</v>
       </c>
       <c r="D14" s="7">
-        <v>649527</v>
+        <v>894825</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2386,10 +2173,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>610</v>
+        <v>883</v>
       </c>
       <c r="I14" s="7">
-        <v>600496</v>
+        <v>919427</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2401,10 +2188,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1223</v>
+        <v>1825</v>
       </c>
       <c r="N14" s="7">
-        <v>1250022</v>
+        <v>1814252</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2422,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2437,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2452,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2469,55 +2256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="D16" s="7">
-        <v>47397</v>
+        <v>161025</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>367</v>
+      </c>
+      <c r="I16" s="7">
+        <v>376807</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>119185</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>530</v>
+      </c>
+      <c r="N16" s="7">
+        <v>537832</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>166</v>
-      </c>
-      <c r="N16" s="7">
-        <v>166582</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>942</v>
+        <v>3051</v>
       </c>
       <c r="D17" s="7">
-        <v>894825</v>
+        <v>3115518</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2930</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3002390</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>883</v>
-      </c>
-      <c r="I17" s="7">
-        <v>919427</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5981</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6117909</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1825</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1814252</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2592,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2623,171 +2410,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7">
-        <v>161025</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>367</v>
-      </c>
-      <c r="I19" s="7">
-        <v>376807</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>530</v>
-      </c>
-      <c r="N19" s="7">
-        <v>537832</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3051</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3115519</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2930</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3002391</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5981</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6117908</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2800,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29AEA7-F668-403A-9C96-469253986A28}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FCFCD-C24C-429C-A366-3F2BFE8BC8D6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2817,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,49 +2549,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>8327</v>
+        <v>45203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="I4" s="7">
-        <v>16028</v>
+        <v>110760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="N4" s="7">
-        <v>24355</v>
+        <v>155963</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2600,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>631</v>
       </c>
       <c r="D5" s="7">
-        <v>107438</v>
+        <v>658266</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>544</v>
       </c>
       <c r="I5" s="7">
-        <v>95877</v>
+        <v>586290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>198</v>
+        <v>1175</v>
       </c>
       <c r="N5" s="7">
-        <v>203315</v>
+        <v>1244556</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3073,49 +2704,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>36876</v>
+        <v>69634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>146</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="7">
-        <v>91</v>
-      </c>
       <c r="I7" s="7">
-        <v>94732</v>
+        <v>160973</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="N7" s="7">
-        <v>131608</v>
+        <v>230608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2755,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>517</v>
+        <v>873</v>
       </c>
       <c r="D8" s="7">
-        <v>550828</v>
+        <v>948313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>460</v>
+        <v>794</v>
       </c>
       <c r="I8" s="7">
-        <v>490413</v>
+        <v>871211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>977</v>
+        <v>1667</v>
       </c>
       <c r="N8" s="7">
-        <v>1041241</v>
+        <v>1819523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3228,49 +2859,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>69634</v>
+        <v>40964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
+        <v>104</v>
+      </c>
+      <c r="I10" s="7">
+        <v>115450</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="7">
-        <v>160973</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>230608</v>
+        <v>156414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2910,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>873</v>
+        <v>657</v>
       </c>
       <c r="D11" s="7">
-        <v>948313</v>
+        <v>716659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>794</v>
+        <v>601</v>
       </c>
       <c r="I11" s="7">
-        <v>871211</v>
+        <v>661724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1667</v>
+        <v>1258</v>
       </c>
       <c r="N11" s="7">
-        <v>1819523</v>
+        <v>1378383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3345,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3360,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3383,49 +3014,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>40964</v>
+        <v>71880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>115450</v>
+        <v>167643</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="N13" s="7">
-        <v>156414</v>
+        <v>239522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>657</v>
+        <v>846</v>
       </c>
       <c r="D14" s="7">
-        <v>716659</v>
+        <v>875859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>601</v>
+        <v>842</v>
       </c>
       <c r="I14" s="7">
-        <v>661724</v>
+        <v>884258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>1258</v>
+        <v>1688</v>
       </c>
       <c r="N14" s="7">
-        <v>1378383</v>
+        <v>1760118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3500,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3515,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3532,55 +3163,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="D16" s="7">
-        <v>71880</v>
+        <v>227680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="I16" s="7">
-        <v>167643</v>
+        <v>554826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>225</v>
+        <v>719</v>
       </c>
       <c r="N16" s="7">
-        <v>239522</v>
+        <v>782506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3220,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>846</v>
+        <v>3007</v>
       </c>
       <c r="D17" s="7">
-        <v>875859</v>
+        <v>3199099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>842</v>
+        <v>2781</v>
       </c>
       <c r="I17" s="7">
-        <v>884258</v>
+        <v>3003483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1688</v>
+        <v>5788</v>
       </c>
       <c r="N17" s="7">
-        <v>1760118</v>
+        <v>6202582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3655,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3670,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3686,171 +3317,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>202</v>
-      </c>
-      <c r="D19" s="7">
-        <v>227680</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>517</v>
-      </c>
-      <c r="I19" s="7">
-        <v>554826</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>719</v>
-      </c>
-      <c r="N19" s="7">
-        <v>782506</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3007</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3199099</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2781</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3003483</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5788</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6202582</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3863,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16512A20-B765-4EE4-9CD6-05783BB15C02}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1E729-2889-4D9B-A3B2-219C5945A299}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3880,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +3456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>8424</v>
+        <v>36392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>23952</v>
+        <v>118906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N4" s="7">
-        <v>32377</v>
+        <v>155297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3507,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>616</v>
       </c>
       <c r="D5" s="7">
-        <v>108122</v>
+        <v>638408</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>551</v>
       </c>
       <c r="I5" s="7">
-        <v>89408</v>
+        <v>553933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>197</v>
+        <v>1167</v>
       </c>
       <c r="N5" s="7">
-        <v>197529</v>
+        <v>1192342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4136,49 +3611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>27967</v>
+        <v>58434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I7" s="7">
-        <v>94953</v>
+        <v>141298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="N7" s="7">
-        <v>122920</v>
+        <v>199732</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3662,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>510</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>530287</v>
+        <v>963997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>460</v>
+        <v>851</v>
       </c>
       <c r="I8" s="7">
-        <v>464526</v>
+        <v>901615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>970</v>
+        <v>1747</v>
       </c>
       <c r="N8" s="7">
-        <v>994813</v>
+        <v>1865612</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4291,49 +3766,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>58434</v>
+        <v>47209</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>141298</v>
+        <v>109260</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="N10" s="7">
-        <v>199732</v>
+        <v>156469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>896</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>963997</v>
+        <v>712343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>851</v>
+        <v>638</v>
       </c>
       <c r="I11" s="7">
-        <v>901615</v>
+        <v>675751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1747</v>
+        <v>1289</v>
       </c>
       <c r="N11" s="7">
-        <v>1865612</v>
+        <v>1388094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4446,49 +3921,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>47209</v>
+        <v>70664</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="I13" s="7">
-        <v>109260</v>
+        <v>168868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>156469</v>
+        <v>239532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +3972,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>651</v>
+        <v>862</v>
       </c>
       <c r="D14" s="7">
-        <v>712343</v>
+        <v>866903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>638</v>
+        <v>812</v>
       </c>
       <c r="I14" s="7">
-        <v>675751</v>
+        <v>874911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>1289</v>
+        <v>1674</v>
       </c>
       <c r="N14" s="7">
-        <v>1388094</v>
+        <v>1741814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4595,55 +4070,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D16" s="7">
-        <v>70664</v>
+        <v>212698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>147</v>
+        <v>486</v>
       </c>
       <c r="I16" s="7">
-        <v>168868</v>
+        <v>538331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>692</v>
       </c>
       <c r="N16" s="7">
-        <v>239532</v>
+        <v>751029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>862</v>
+        <v>3025</v>
       </c>
       <c r="D17" s="7">
-        <v>866903</v>
+        <v>3181652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>812</v>
+        <v>2852</v>
       </c>
       <c r="I17" s="7">
-        <v>874911</v>
+        <v>3006211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>1674</v>
+        <v>5877</v>
       </c>
       <c r="N17" s="7">
-        <v>1741814</v>
+        <v>6187863</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4749,171 +4224,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>206</v>
-      </c>
-      <c r="D19" s="7">
-        <v>212698</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>486</v>
-      </c>
-      <c r="I19" s="7">
-        <v>538331</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>692</v>
-      </c>
-      <c r="N19" s="7">
-        <v>751029</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3025</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3181652</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2852</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3006211</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5877</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6187863</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4926,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52EFB32-BF69-44EE-82C6-F729265BAFC6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA24794-930D-4C0C-B85A-21609345833D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4943,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7">
-        <v>6550</v>
+        <v>64177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="I4" s="7">
-        <v>19403</v>
+        <v>121213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="N4" s="7">
-        <v>25952</v>
+        <v>185390</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>642</v>
       </c>
       <c r="D5" s="7">
-        <v>95432</v>
+        <v>571264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>200</v>
+        <v>982</v>
       </c>
       <c r="I5" s="7">
-        <v>111330</v>
+        <v>604117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>309</v>
+        <v>1624</v>
       </c>
       <c r="N5" s="7">
-        <v>206763</v>
+        <v>1175382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5161,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5199,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>61729</v>
+        <v>64142</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="I7" s="7">
-        <v>110983</v>
+        <v>172290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="N7" s="7">
-        <v>172712</v>
+        <v>236432</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>881</v>
       </c>
       <c r="D8" s="7">
-        <v>488094</v>
+        <v>1128722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
-        <v>782</v>
+        <v>1210</v>
       </c>
       <c r="I8" s="7">
-        <v>508984</v>
+        <v>786361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
-        <v>1315</v>
+        <v>2091</v>
       </c>
       <c r="N8" s="7">
-        <v>997078</v>
+        <v>1915084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5316,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5354,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>68715</v>
+        <v>60568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="I10" s="7">
-        <v>191420</v>
+        <v>113417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>390</v>
+        <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>260135</v>
+        <v>173985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>881</v>
+        <v>606</v>
       </c>
       <c r="D11" s="7">
-        <v>970533</v>
+        <v>644112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>1210</v>
+        <v>864</v>
       </c>
       <c r="I11" s="7">
-        <v>868659</v>
+        <v>819949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>2091</v>
+        <v>1470</v>
       </c>
       <c r="N11" s="7">
-        <v>1839192</v>
+        <v>1464061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5471,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5486,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5509,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D13" s="7">
-        <v>64937</v>
+        <v>93715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>125298</v>
+        <v>195123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="N13" s="7">
-        <v>190235</v>
+        <v>288838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>606</v>
+        <v>889</v>
       </c>
       <c r="D14" s="7">
-        <v>663835</v>
+        <v>833116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>864</v>
+        <v>1235</v>
       </c>
       <c r="I14" s="7">
-        <v>749073</v>
+        <v>899809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>1470</v>
+        <v>2124</v>
       </c>
       <c r="N14" s="7">
-        <v>1412907</v>
+        <v>1732925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5626,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5641,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5658,55 +4977,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="D16" s="7">
-        <v>98480</v>
+        <v>282602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>327</v>
+        <v>1076</v>
       </c>
       <c r="I16" s="7">
-        <v>219310</v>
+        <v>602042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
-        <v>444</v>
+        <v>1434</v>
       </c>
       <c r="N16" s="7">
-        <v>317790</v>
+        <v>884644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>889</v>
+        <v>3018</v>
       </c>
       <c r="D17" s="7">
-        <v>866923</v>
+        <v>3177215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
-        <v>1235</v>
+        <v>4291</v>
       </c>
       <c r="I17" s="7">
-        <v>931122</v>
+        <v>3110238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
-        <v>2124</v>
+        <v>7309</v>
       </c>
       <c r="N17" s="7">
-        <v>1798045</v>
+        <v>6287453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,10 +5085,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5781,10 +5100,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5796,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5812,171 +5131,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>358</v>
-      </c>
-      <c r="D19" s="7">
-        <v>300411</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1076</v>
-      </c>
-      <c r="I19" s="7">
-        <v>666414</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1434</v>
-      </c>
-      <c r="N19" s="7">
-        <v>966825</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3018</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3084817</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4291</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3169167</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7309</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6253984</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
